--- a/tut05/output/0401EE13.xlsx
+++ b/tut05/output/0401EE13.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.816326530612245</v>
+        <v>6.82</v>
       </c>
       <c r="C6" t="n">
-        <v>6.068181818181818</v>
+        <v>6.07</v>
       </c>
       <c r="D6" t="n">
-        <v>6.673913043478261</v>
+        <v>6.67</v>
       </c>
       <c r="E6" t="n">
-        <v>7.239130434782608</v>
+        <v>7.24</v>
       </c>
       <c r="F6" t="n">
-        <v>7.230769230769231</v>
+        <v>7.23</v>
       </c>
       <c r="G6" t="n">
         <v>7.5</v>
       </c>
       <c r="H6" t="n">
-        <v>7.604651162790698</v>
+        <v>7.6</v>
       </c>
       <c r="I6" t="n">
-        <v>8.052631578947368</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.816326530612245</v>
+        <v>6.82</v>
       </c>
       <c r="C8" t="n">
-        <v>6.462365591397849</v>
+        <v>6.46</v>
       </c>
       <c r="D8" t="n">
-        <v>6.532374100719425</v>
+        <v>6.53</v>
       </c>
       <c r="E8" t="n">
-        <v>6.708108108108108</v>
+        <v>6.71</v>
       </c>
       <c r="F8" t="n">
-        <v>6.799107142857143</v>
+        <v>6.8</v>
       </c>
       <c r="G8" t="n">
-        <v>6.90530303030303</v>
+        <v>6.91</v>
       </c>
       <c r="H8" t="n">
-        <v>7.003257328990228</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>7.118840579710145</v>
+        <v>7.12</v>
       </c>
     </row>
   </sheetData>
